--- a/data/trans_orig/P15E_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>842</v>
+        <v>1160</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4440</v>
+        <v>4412</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6616728266768008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1755516381554278</v>
+        <v>0.2416348316883686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9252090250830562</v>
+        <v>0.9193202005483324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -762,19 +762,19 @@
         <v>13035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10487</v>
+        <v>10066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14988</v>
+        <v>14942</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8103886038445992</v>
+        <v>0.8103886038445991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6519522712465279</v>
+        <v>0.6257861051565271</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9317871421928681</v>
+        <v>0.9289552980457281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>16211</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12641</v>
+        <v>12740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18456</v>
+        <v>18535</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7762174694522438</v>
+        <v>0.7762174694522439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6052903781668482</v>
+        <v>0.6100329825578933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.883730099168955</v>
+        <v>0.8875333779300559</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>1624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3914</v>
+        <v>3646</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3383271733231992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07419758970096467</v>
+        <v>0.08112134583515491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8156870225121252</v>
+        <v>0.7596929572857869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>3050</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1097</v>
+        <v>1143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5598</v>
+        <v>6019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1896113961554009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06821285780713197</v>
+        <v>0.07104470195427152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3480477287534721</v>
+        <v>0.3742138948434729</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>4673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2428</v>
+        <v>2349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8243</v>
+        <v>8144</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.223782530547756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.116269900831045</v>
+        <v>0.112466622069944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3947096218331519</v>
+        <v>0.3899670174421063</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>7164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4436</v>
+        <v>4173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9699</v>
+        <v>9569</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6125585015570175</v>
+        <v>0.6125585015570174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3792720760401787</v>
+        <v>0.3568059493752844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8293101537489788</v>
+        <v>0.8181978131002956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -979,19 +979,19 @@
         <v>26647</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22795</v>
+        <v>22468</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29692</v>
+        <v>29831</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7568029981629831</v>
+        <v>0.7568029981629832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6474081004155855</v>
+        <v>0.6381010004971218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8432929985570879</v>
+        <v>0.8472250065770909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -1000,19 +1000,19 @@
         <v>33810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29099</v>
+        <v>28585</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38114</v>
+        <v>37791</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7208388104125841</v>
+        <v>0.7208388104125842</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6203864075307862</v>
+        <v>0.6094301180910928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.812594299515669</v>
+        <v>0.805710483911496</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>4531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1996</v>
+        <v>2126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7259</v>
+        <v>7522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3874414984429826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1706898462510213</v>
+        <v>0.1818021868997046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6207279239598213</v>
+        <v>0.6431940506247159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1050,19 +1050,19 @@
         <v>8563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5518</v>
+        <v>5379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12415</v>
+        <v>12742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2431970018370168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1567070014429119</v>
+        <v>0.1527749934229091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3525918995844144</v>
+        <v>0.3618989995028781</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1071,19 +1071,19 @@
         <v>13094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8790</v>
+        <v>9113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17805</v>
+        <v>18319</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2791611895874158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1874057004843311</v>
+        <v>0.1942895160885039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3796135924692144</v>
+        <v>0.3905698819089078</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>9135</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5848</v>
+        <v>5662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12302</v>
+        <v>11748</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6434153710724438</v>
+        <v>0.643415371072444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4118892271237765</v>
+        <v>0.3988088253691432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8665035753119198</v>
+        <v>0.8274921743238861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1196,19 +1196,19 @@
         <v>13932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10995</v>
+        <v>10573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16983</v>
+        <v>16646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6782784946987234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5353138829429959</v>
+        <v>0.5147708451177423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8268366962383266</v>
+        <v>0.8104079765239992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1217,19 +1217,19 @@
         <v>23066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18818</v>
+        <v>18560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27029</v>
+        <v>26982</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6640302156350293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5417269297578733</v>
+        <v>0.5343048888529459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7780960436579047</v>
+        <v>0.7767650138276473</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>5062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1895</v>
+        <v>2449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8349</v>
+        <v>8535</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.356584628927556</v>
+        <v>0.3565846289275559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1334964246880802</v>
+        <v>0.1725078256761134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5881107728762236</v>
+        <v>0.601191174630857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1267,19 +1267,19 @@
         <v>6608</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3557</v>
+        <v>3894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9545</v>
+        <v>9967</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3217215053012767</v>
+        <v>0.3217215053012766</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1731633037616737</v>
+        <v>0.1895920234760007</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.464686117057005</v>
+        <v>0.4852291548822578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1288,19 +1288,19 @@
         <v>11671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7708</v>
+        <v>7755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15919</v>
+        <v>16177</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3359697843649707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2219039563420953</v>
+        <v>0.2232349861723528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4582730702421266</v>
+        <v>0.4656951111470535</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>4920</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2442</v>
+        <v>2309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6690</v>
+        <v>6618</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6636149838997781</v>
+        <v>0.6636149838997782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3293844144463305</v>
+        <v>0.3114297168840227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9023887807796908</v>
+        <v>0.8926314401434075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1413,19 +1413,19 @@
         <v>10141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7179</v>
+        <v>7127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12638</v>
+        <v>12483</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6851470076788296</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4850237477665521</v>
+        <v>0.481517568633573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8538789745133285</v>
+        <v>0.8433635199912177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1434,19 +1434,19 @@
         <v>15061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11116</v>
+        <v>11230</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17930</v>
+        <v>18217</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6779611369236607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5003906371627663</v>
+        <v>0.5055358914488762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8071116617733453</v>
+        <v>0.8200110586354418</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4972</v>
+        <v>5105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3363850161002219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09761121922030926</v>
+        <v>0.107368559856593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.670615585553669</v>
+        <v>0.6885702831159776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1484,19 +1484,19 @@
         <v>4660</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2163</v>
+        <v>2318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7622</v>
+        <v>7674</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3148529923211704</v>
+        <v>0.3148529923211705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1461210254866716</v>
+        <v>0.1566364800087821</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5149762522334473</v>
+        <v>0.5184824313664268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1505,19 +1505,19 @@
         <v>7154</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4285</v>
+        <v>3998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11099</v>
+        <v>10985</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3220388630763392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1928883382266547</v>
+        <v>0.1799889413645583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4996093628372337</v>
+        <v>0.4944641085511237</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>24393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6401745472237639</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -1630,19 +1630,19 @@
         <v>63756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57620</v>
+        <v>57514</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69384</v>
+        <v>69302</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7358927231698867</v>
+        <v>0.7358927231698869</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6650782657722347</v>
+        <v>0.6638507937406963</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8008572506625115</v>
+        <v>0.799908682029289</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>161</v>
@@ -1651,19 +1651,19 @@
         <v>88149</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79661</v>
+        <v>80062</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95496</v>
+        <v>95753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7066541971479687</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6386083337209408</v>
+        <v>0.641828611941947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7655561420356886</v>
+        <v>0.7676110877304531</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>13711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -1701,19 +1701,19 @@
         <v>22881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17253</v>
+        <v>17335</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29017</v>
+        <v>29123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2641072768301131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1991427493374885</v>
+        <v>0.2000913179707109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3349217342277652</v>
+        <v>0.3361492062593038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -1722,19 +1722,19 @@
         <v>36592</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29245</v>
+        <v>28988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45080</v>
+        <v>44679</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2933458028520313</v>
+        <v>0.2933458028520312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2344438579643115</v>
+        <v>0.232388912269547</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3613916662790591</v>
+        <v>0.3581713880580529</v>
       </c>
     </row>
     <row r="18">
